--- a/安排.xlsx
+++ b/安排.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\C++\2025\mxy_stl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF8B79-C029-4D45-AAE5-F643357B0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E565C88-DAF9-4B28-9983-894F7A67A8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>

--- a/安排.xlsx
+++ b/安排.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\C++\2025\mxy_stl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF8B79-C029-4D45-AAE5-F643357B0F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D96AA2-24CE-4913-8C05-AFC996A939C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>┣</t>
   </si>
@@ -55,6 +58,22 @@
   </si>
   <si>
     <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -76,13 +95,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="MXY Mono"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="MXY Mono"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,21 +137,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="MXY25">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="MXY2">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,109 +191,49 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DDD9C3"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="2C67B1"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C15350"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8368A5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4CADC5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F58B30"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="68B8CE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="68B8CE"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="MXYMOMO">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="MXY Mono"/>
+        <a:ea typeface="MXY Mono"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="MXY Mono"/>
+        <a:ea typeface="MXY Mono"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -245,151 +242,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -397,7 +418,7 @@
     <col min="1" max="16384" width="15.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -405,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -413,56 +434,68 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -470,5 +503,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>